--- a/Inputs/Ison_Secure/addons1.xlsx
+++ b/Inputs/Ison_Secure/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dental" sheetId="1" state="visible" r:id="rId2"/>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,6 +118,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,10 +212,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
@@ -264,8 +274,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>378.18</v>
+      <c r="H2" s="5" t="n">
+        <v>417.518248175182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,8 +302,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>185.45</v>
+      <c r="H3" s="5" t="n">
+        <v>204.744525547445</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,14 +330,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>120</v>
+      <c r="H4" s="5" t="n">
+        <v>132.481751824818</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -342,11 +352,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
@@ -405,8 +415,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>130.91</v>
+      <c r="H2" s="5" t="n">
+        <v>144.525547445255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,14 +443,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>63.64</v>
+      <c r="H3" s="5" t="n">
+        <v>70.2627737226277</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -455,11 +465,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
@@ -539,7 +549,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
